--- a/5-frequency-tables/5-frequency-tables-solution.xlsx
+++ b/5-frequency-tables/5-frequency-tables-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\5-frequency-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31A9A7C-27FE-425E-853A-D68B480EB06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200B2F5-0941-4AFC-B359-F496EF1A7ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,47 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -49,11 +86,36 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>housing_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>housing_df['stories'].value_counts()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>housing_df['stories'].value_counts(normalize=True).sort_values(ascending=False)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>price_bins = [0, 40000, 70000, 100000, 150000, float('inf')]
+price_labels = ['Low', 'Moderate', 'Mid-High', 'High', 'Luxury']
+# Create a new column for the binned price ranges
+housing_df['price_range'] = pd.cut(housing_df['price'], bins=price_bins, labels=price_labels)
+# Display the frequency of each bin
+housing_df['price_range'].value_counts()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>pd.crosstab(housing_df['stories'], housing_df['driveway'])</code>
+    </pythonScript>
+    <pythonScript>
+      <code>pd.crosstab(housing_df['stories'], housing_df['driveway'], normalize='all', margins=True)</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="14">
   <si>
     <t>price</t>
   </si>
@@ -95,9 +157,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>https://chatgpt.com/c/680d1773-a8a8-8001-a88f-610dab6d38e9</t>
   </si>
 </sst>
 </file>
@@ -581,8 +640,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -639,6 +699,282 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="12">
+    <v t="s"/>
+    <v t="s">price</v>
+    <v t="s">lotsize</v>
+    <v t="s">bedrooms</v>
+    <v t="s">bathrms</v>
+    <v t="s">stories</v>
+    <v t="s">...</v>
+    <v t="s">fullbase</v>
+    <v t="s">gashw</v>
+    <v t="s">airco</v>
+    <v t="s">garagepl</v>
+    <v t="s">prefarea</v>
+    <v>0</v>
+    <v>42000</v>
+    <v>5850</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">yes</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>38500</v>
+    <v>4000</v>
+    <v>2</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>2</v>
+    <v>49500</v>
+    <v>3060</v>
+    <v>3</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>3</v>
+    <v>60500</v>
+    <v>6650</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>4</v>
+    <v>61000</v>
+    <v>6360</v>
+    <v>2</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>541</v>
+    <v>91500</v>
+    <v>4800</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>542</v>
+    <v>94000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>543</v>
+    <v>103000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>544</v>
+    <v>105000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>2</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>545</v>
+    <v>105000</v>
+    <v>6000</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      price  lotsize  bedrooms  bathrms  stories driveway recroom fullbase  \
+0     42000     5850         3        1        2      yes      no      yes   
+1     38500     4000         2        1        1      yes      no       no   
+2     49500     30...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="3">
+    <spb s="0">
+      <v>546</v>
+      <v>12</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F100E-6F50-45F7-B7E1-91FE25D9DD5D}">
-  <dimension ref="A1:N547"/>
+  <dimension ref="A1:Q547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
@@ -991,9 +1327,11 @@
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,11 +1368,12 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N1" t="e" cm="1" vm="1">
+        <f t="array" ref="N1">_xlfn._xlws.PY(0,1,housing[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>42000</v>
       </c>
@@ -1072,7 +1411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>38500</v>
       </c>
@@ -1109,8 +1448,15 @@
       <c r="L3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3:O7">_xlfn._xlws.PY(1,0)</f>
+        <v>stories</v>
+      </c>
+      <c r="O3" t="str">
+        <v>count</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>49500</v>
       </c>
@@ -1147,8 +1493,14 @@
       <c r="L4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>60500</v>
       </c>
@@ -1185,8 +1537,14 @@
       <c r="L5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>61000</v>
       </c>
@@ -1223,8 +1581,14 @@
       <c r="L6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>66000</v>
       </c>
@@ -1261,8 +1625,14 @@
       <c r="L7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>66000</v>
       </c>
@@ -1300,7 +1670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>69000</v>
       </c>
@@ -1337,8 +1707,15 @@
       <c r="L9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9:O13">_xlfn._xlws.PY(2,0)</f>
+        <v>stories</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <v>proportion</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>83800</v>
       </c>
@@ -1375,8 +1752,14 @@
       <c r="L10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>88500</v>
       </c>
@@ -1413,8 +1796,14 @@
       <c r="L11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.41575091575091577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>90000</v>
       </c>
@@ -1451,8 +1840,14 @@
       <c r="L12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>7.5091575091575088E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A13">
         <v>30500</v>
       </c>
@@ -1489,8 +1884,14 @@
       <c r="L13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>7.3260073260073263E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A14">
         <v>27000</v>
       </c>
@@ -1528,7 +1929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A15">
         <v>36000</v>
       </c>
@@ -1565,8 +1966,15 @@
       <c r="L15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15:O20">_xlfn._xlws.PY(3,0)</f>
+        <v>price_range</v>
+      </c>
+      <c r="O15" t="str">
+        <v>count</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A16">
         <v>37000</v>
       </c>
@@ -1603,8 +2011,14 @@
       <c r="L16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N16" t="str">
+        <v>Moderate</v>
+      </c>
+      <c r="O16">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>37900</v>
       </c>
@@ -1641,8 +2055,14 @@
       <c r="L17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N17" t="str">
+        <v>Mid-High</v>
+      </c>
+      <c r="O17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A18">
         <v>40500</v>
       </c>
@@ -1679,8 +2099,14 @@
       <c r="L18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N18" t="str">
+        <v>High</v>
+      </c>
+      <c r="O18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A19">
         <v>40750</v>
       </c>
@@ -1717,8 +2143,14 @@
       <c r="L19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N19" t="str">
+        <v>Low</v>
+      </c>
+      <c r="O19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A20">
         <v>45000</v>
       </c>
@@ -1755,8 +2187,14 @@
       <c r="L20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N20" t="str">
+        <v>Luxury</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A21">
         <v>45000</v>
       </c>
@@ -1794,7 +2232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A22">
         <v>48500</v>
       </c>
@@ -1832,7 +2270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A23">
         <v>65900</v>
       </c>
@@ -1869,8 +2307,18 @@
       <c r="L23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N23" t="str" cm="1">
+        <f t="array" ref="N23:P28">_xlfn._xlws.PY(4,0)</f>
+        <v>driveway</v>
+      </c>
+      <c r="O23" t="str">
+        <v>no</v>
+      </c>
+      <c r="P23" t="str">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A24">
         <v>37900</v>
       </c>
@@ -1907,8 +2355,17 @@
       <c r="L24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N24" t="str">
+        <v>stories</v>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A25">
         <v>38000</v>
       </c>
@@ -1945,8 +2402,17 @@
       <c r="L25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>37</v>
+      </c>
+      <c r="P25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A26">
         <v>42000</v>
       </c>
@@ -1983,8 +2449,17 @@
       <c r="L26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>38</v>
+      </c>
+      <c r="P26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A27">
         <v>42300</v>
       </c>
@@ -2021,8 +2496,17 @@
       <c r="L27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A28">
         <v>43500</v>
       </c>
@@ -2059,8 +2543,17 @@
       <c r="L28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A29">
         <v>44000</v>
       </c>
@@ -2098,7 +2591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A30">
         <v>44500</v>
       </c>
@@ -2136,7 +2629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A31">
         <v>44900</v>
       </c>
@@ -2173,8 +2666,21 @@
       <c r="L31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N31" t="str" cm="1">
+        <f t="array" ref="N31:Q37">_xlfn._xlws.PY(5,0)</f>
+        <v>driveway</v>
+      </c>
+      <c r="O31" t="str">
+        <v>no</v>
+      </c>
+      <c r="P31" t="str">
+        <v>yes</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>All</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A32">
         <v>45000</v>
       </c>
@@ -2211,8 +2717,20 @@
       <c r="L32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N32" t="str">
+        <v>stories</v>
+      </c>
+      <c r="O32" t="str">
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <v/>
+      </c>
+      <c r="Q32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A33">
         <v>48000</v>
       </c>
@@ -2249,8 +2767,20 @@
       <c r="L33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>6.7765567765567761E-2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.34798534798534797</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.41575091575091577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A34">
         <v>49000</v>
       </c>
@@ -2287,8 +2817,20 @@
       <c r="L34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>6.95970695970696E-2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.36630036630036628</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A35">
         <v>51500</v>
       </c>
@@ -2325,8 +2867,20 @@
       <c r="L35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3.663003663003663E-3</v>
+      </c>
+      <c r="P35" s="1">
+        <v>6.95970695970696E-2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>7.3260073260073263E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A36">
         <v>61000</v>
       </c>
@@ -2363,8 +2917,20 @@
       <c r="L36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>7.5091575091575088E-2</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>7.5091575091575088E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A37">
         <v>61000</v>
       </c>
@@ -2401,8 +2967,20 @@
       <c r="L37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="N37" t="str">
+        <v>All</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.85897435897435892</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A38">
         <v>61700</v>
       </c>
@@ -2440,7 +3018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A39">
         <v>67000</v>
       </c>
@@ -2478,7 +3056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A40">
         <v>82000</v>
       </c>
@@ -2516,7 +3094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A41">
         <v>54500</v>
       </c>
@@ -2554,7 +3132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A42">
         <v>66500</v>
       </c>
@@ -2592,7 +3170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A43">
         <v>70000</v>
       </c>
@@ -2630,7 +3208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A44">
         <v>82000</v>
       </c>
@@ -2668,7 +3246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A45">
         <v>92000</v>
       </c>
@@ -2706,7 +3284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A46">
         <v>38000</v>
       </c>
@@ -2744,7 +3322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A47">
         <v>44000</v>
       </c>
@@ -2782,7 +3360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A48">
         <v>41000</v>
       </c>
@@ -21784,22 +22362,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EF09FB187B9B84793DBC132EEBE2230" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aac6bf77fcb3d30d53f0d4b79425cbb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f" xmlns:ns3="86b59944-c92b-47ac-9d30-5bf03be2cde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725b7bcca34814dbd54a474e410d6122" ns2:_="" ns3:_="">
     <xsd:import namespace="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
@@ -22042,6 +22612,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -22054,14 +22633,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544B82FC-20C2-418A-951C-FC717CE0D202}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22080,6 +22651,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
   <ds:schemaRefs>

--- a/5-frequency-tables/5-frequency-tables-solution.xlsx
+++ b/5-frequency-tables/5-frequency-tables-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\5-frequency-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200B2F5-0941-4AFC-B359-F496EF1A7ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F036A-225C-4646-834C-E477FDC2E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="5" r:id="rId1"/>
@@ -95,14 +95,6 @@
     </pythonScript>
     <pythonScript>
       <code>housing_df['stories'].value_counts(normalize=True).sort_values(ascending=False)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>price_bins = [0, 40000, 70000, 100000, 150000, float('inf')]
-price_labels = ['Low', 'Moderate', 'Mid-High', 'High', 'Luxury']
-# Create a new column for the binned price ranges
-housing_df['price_range'] = pd.cut(housing_df['price'], bins=price_bins, labels=price_labels)
-# Display the frequency of each bin
-housing_df['price_range'].value_counts()</code>
     </pythonScript>
     <pythonScript>
       <code>pd.crosstab(housing_df['stories'], housing_df['driveway'])</code>
@@ -1317,21 +1309,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F100E-6F50-45F7-B7E1-91FE25D9DD5D}">
   <dimension ref="A1:Q547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" customWidth="1"/>
     <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1365,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A2">
         <v>42000</v>
       </c>
@@ -1411,7 +1403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A3">
         <v>38500</v>
       </c>
@@ -1456,7 +1448,7 @@
         <v>count</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A4">
         <v>49500</v>
       </c>
@@ -1500,7 +1492,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A5">
         <v>60500</v>
       </c>
@@ -1544,7 +1536,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A6">
         <v>61000</v>
       </c>
@@ -1588,7 +1580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A7">
         <v>66000</v>
       </c>
@@ -1632,7 +1624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A8">
         <v>66000</v>
       </c>
@@ -1670,7 +1662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A9">
         <v>69000</v>
       </c>
@@ -1715,7 +1707,7 @@
         <v>proportion</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A10">
         <v>83800</v>
       </c>
@@ -1759,7 +1751,7 @@
         <v>0.4358974358974359</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A11">
         <v>88500</v>
       </c>
@@ -1803,7 +1795,7 @@
         <v>0.41575091575091577</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A12">
         <v>90000</v>
       </c>
@@ -1847,7 +1839,7 @@
         <v>7.5091575091575088E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A13">
         <v>30500</v>
       </c>
@@ -1891,7 +1883,7 @@
         <v>7.3260073260073263E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A14">
         <v>27000</v>
       </c>
@@ -1929,7 +1921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A15">
         <v>36000</v>
       </c>
@@ -1966,15 +1958,8 @@
       <c r="L15" t="s">
         <v>13</v>
       </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15:O20">_xlfn._xlws.PY(3,0)</f>
-        <v>price_range</v>
-      </c>
-      <c r="O15" t="str">
-        <v>count</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.7">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A16">
         <v>37000</v>
       </c>
@@ -2011,14 +1996,18 @@
       <c r="L16" t="s">
         <v>13</v>
       </c>
-      <c r="N16" t="str">
-        <v>Moderate</v>
-      </c>
-      <c r="O16">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16:P21">_xlfn._xlws.PY(3,0)</f>
+        <v>driveway</v>
+      </c>
+      <c r="O16" t="str">
+        <v>no</v>
+      </c>
+      <c r="P16" t="str">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A17">
         <v>37900</v>
       </c>
@@ -2056,13 +2045,16 @@
         <v>13</v>
       </c>
       <c r="N17" t="str">
-        <v>Mid-High</v>
-      </c>
-      <c r="O17">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
+        <v>stories</v>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A18">
         <v>40500</v>
       </c>
@@ -2099,14 +2091,17 @@
       <c r="L18" t="s">
         <v>13</v>
       </c>
-      <c r="N18" t="str">
-        <v>High</v>
+      <c r="N18">
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.7">
+        <v>37</v>
+      </c>
+      <c r="P18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A19">
         <v>40750</v>
       </c>
@@ -2143,14 +2138,17 @@
       <c r="L19" t="s">
         <v>13</v>
       </c>
-      <c r="N19" t="str">
-        <v>Low</v>
+      <c r="N19">
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.7">
+        <v>38</v>
+      </c>
+      <c r="P19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A20">
         <v>45000</v>
       </c>
@@ -2187,14 +2185,17 @@
       <c r="L20" t="s">
         <v>13</v>
       </c>
-      <c r="N20" t="str">
-        <v>Luxury</v>
+      <c r="N20">
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.7">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A21">
         <v>45000</v>
       </c>
@@ -2231,8 +2232,17 @@
       <c r="L21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A22">
         <v>48500</v>
       </c>
@@ -2270,7 +2280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A23">
         <v>65900</v>
       </c>
@@ -2307,18 +2317,8 @@
       <c r="L23" t="s">
         <v>13</v>
       </c>
-      <c r="N23" t="str" cm="1">
-        <f t="array" ref="N23:P28">_xlfn._xlws.PY(4,0)</f>
-        <v>driveway</v>
-      </c>
-      <c r="O23" t="str">
-        <v>no</v>
-      </c>
-      <c r="P23" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A24">
         <v>37900</v>
       </c>
@@ -2355,17 +2355,21 @@
       <c r="L24" t="s">
         <v>13</v>
       </c>
-      <c r="N24" t="str">
-        <v>stories</v>
+      <c r="N24" t="str" cm="1">
+        <f t="array" ref="N24:Q30">_xlfn._xlws.PY(4,0)</f>
+        <v>driveway</v>
       </c>
       <c r="O24" t="str">
-        <v/>
+        <v>no</v>
       </c>
       <c r="P24" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.7">
+        <v>yes</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>All</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A25">
         <v>38000</v>
       </c>
@@ -2402,17 +2406,20 @@
       <c r="L25" t="s">
         <v>13</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>37</v>
-      </c>
-      <c r="P25">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="N25" t="str">
+        <v>stories</v>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A26">
         <v>42000</v>
       </c>
@@ -2450,16 +2457,19 @@
         <v>13</v>
       </c>
       <c r="N26">
-        <v>2</v>
-      </c>
-      <c r="O26">
-        <v>38</v>
-      </c>
-      <c r="P26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.7">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>6.7765567765567761E-2</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.34798534798534797</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.41575091575091577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A27">
         <v>42300</v>
       </c>
@@ -2497,16 +2507,19 @@
         <v>13</v>
       </c>
       <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
-      <c r="P27">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.7">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>6.95970695970696E-2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.36630036630036628</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A28">
         <v>43500</v>
       </c>
@@ -2544,16 +2557,19 @@
         <v>13</v>
       </c>
       <c r="N28">
-        <v>4</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.7">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>3.663003663003663E-3</v>
+      </c>
+      <c r="P28" s="1">
+        <v>6.95970695970696E-2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>7.3260073260073263E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A29">
         <v>44000</v>
       </c>
@@ -2590,8 +2606,20 @@
       <c r="L29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>7.5091575091575088E-2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>7.5091575091575088E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A30">
         <v>44500</v>
       </c>
@@ -2628,8 +2656,20 @@
       <c r="L30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="N30" t="str">
+        <v>All</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.85897435897435892</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A31">
         <v>44900</v>
       </c>
@@ -2666,21 +2706,8 @@
       <c r="L31" t="s">
         <v>13</v>
       </c>
-      <c r="N31" t="str" cm="1">
-        <f t="array" ref="N31:Q37">_xlfn._xlws.PY(5,0)</f>
-        <v>driveway</v>
-      </c>
-      <c r="O31" t="str">
-        <v>no</v>
-      </c>
-      <c r="P31" t="str">
-        <v>yes</v>
-      </c>
-      <c r="Q31" t="str">
-        <v>All</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A32">
         <v>45000</v>
       </c>
@@ -2717,20 +2744,8 @@
       <c r="L32" t="s">
         <v>13</v>
       </c>
-      <c r="N32" t="str">
-        <v>stories</v>
-      </c>
-      <c r="O32" t="str">
-        <v/>
-      </c>
-      <c r="P32" t="str">
-        <v/>
-      </c>
-      <c r="Q32" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A33">
         <v>48000</v>
       </c>
@@ -2767,20 +2782,8 @@
       <c r="L33" t="s">
         <v>13</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1">
-        <v>6.7765567765567761E-2</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.34798534798534797</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0.41575091575091577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A34">
         <v>49000</v>
       </c>
@@ -2817,20 +2820,8 @@
       <c r="L34" t="s">
         <v>13</v>
       </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-      <c r="O34" s="1">
-        <v>6.95970695970696E-2</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.36630036630036628</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0.4358974358974359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A35">
         <v>51500</v>
       </c>
@@ -2867,20 +2858,8 @@
       <c r="L35" t="s">
         <v>13</v>
       </c>
-      <c r="N35">
-        <v>3</v>
-      </c>
-      <c r="O35" s="1">
-        <v>3.663003663003663E-3</v>
-      </c>
-      <c r="P35" s="1">
-        <v>6.95970695970696E-2</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>7.3260073260073263E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A36">
         <v>61000</v>
       </c>
@@ -2917,20 +2896,8 @@
       <c r="L36" t="s">
         <v>13</v>
       </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>7.5091575091575088E-2</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>7.5091575091575088E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A37">
         <v>61000</v>
       </c>
@@ -2967,20 +2934,8 @@
       <c r="L37" t="s">
         <v>13</v>
       </c>
-      <c r="N37" t="str">
-        <v>All</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.14102564102564102</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.85897435897435892</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.7">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A38">
         <v>61700</v>
       </c>
@@ -3018,7 +2973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A39">
         <v>67000</v>
       </c>
@@ -3056,7 +3011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A40">
         <v>82000</v>
       </c>
@@ -3094,7 +3049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A41">
         <v>54500</v>
       </c>
@@ -3132,7 +3087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A42">
         <v>66500</v>
       </c>
@@ -3170,7 +3125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A43">
         <v>70000</v>
       </c>
@@ -3208,7 +3163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A44">
         <v>82000</v>
       </c>
@@ -3246,7 +3201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A45">
         <v>92000</v>
       </c>
@@ -3284,7 +3239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A46">
         <v>38000</v>
       </c>
@@ -3322,7 +3277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A47">
         <v>44000</v>
       </c>
@@ -3360,7 +3315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A48">
         <v>41000</v>
       </c>
@@ -3398,7 +3353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A49">
         <v>43000</v>
       </c>
@@ -3436,7 +3391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A50">
         <v>48000</v>
       </c>
@@ -3474,7 +3429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A51">
         <v>54800</v>
       </c>
@@ -3512,7 +3467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A52">
         <v>55000</v>
       </c>
@@ -3550,7 +3505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A53">
         <v>57000</v>
       </c>
@@ -3588,7 +3543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A54">
         <v>68000</v>
       </c>
@@ -3626,7 +3581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A55">
         <v>95000</v>
       </c>
@@ -3664,7 +3619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A56">
         <v>38000</v>
       </c>
@@ -3702,7 +3657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A57">
         <v>25000</v>
       </c>
@@ -3740,7 +3695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A58">
         <v>25245</v>
       </c>
@@ -3778,7 +3733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A59">
         <v>56000</v>
       </c>
@@ -3816,7 +3771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A60">
         <v>35500</v>
       </c>
@@ -3854,7 +3809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A61">
         <v>30000</v>
       </c>
@@ -3892,7 +3847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A62">
         <v>48000</v>
       </c>
@@ -3930,7 +3885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A63">
         <v>48000</v>
       </c>
@@ -3968,7 +3923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A64">
         <v>52000</v>
       </c>
@@ -4006,7 +3961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A65">
         <v>54000</v>
       </c>
@@ -4044,7 +3999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A66">
         <v>56000</v>
       </c>
@@ -4082,7 +4037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A67">
         <v>60000</v>
       </c>
@@ -4120,7 +4075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A68">
         <v>60000</v>
       </c>
@@ -4158,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A69">
         <v>67000</v>
       </c>
@@ -4196,7 +4151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A70">
         <v>47000</v>
       </c>
@@ -4234,7 +4189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A71">
         <v>70000</v>
       </c>
@@ -4272,7 +4227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A72">
         <v>45000</v>
       </c>
@@ -4310,7 +4265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A73">
         <v>51000</v>
       </c>
@@ -4348,7 +4303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A74">
         <v>32500</v>
       </c>
@@ -4386,7 +4341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A75">
         <v>34000</v>
       </c>
@@ -4424,7 +4379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A76">
         <v>35000</v>
       </c>
@@ -4462,7 +4417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A77">
         <v>36000</v>
       </c>
@@ -4500,7 +4455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A78">
         <v>45000</v>
       </c>
@@ -4538,7 +4493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A79">
         <v>47000</v>
       </c>
@@ -4576,7 +4531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A80">
         <v>55000</v>
       </c>
@@ -4614,7 +4569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A81">
         <v>63900</v>
       </c>
@@ -4652,7 +4607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A82">
         <v>50000</v>
       </c>
@@ -4690,7 +4645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A83">
         <v>35000</v>
       </c>
@@ -4728,7 +4683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A84">
         <v>50000</v>
       </c>
@@ -4766,7 +4721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A85">
         <v>43000</v>
       </c>
@@ -4804,7 +4759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A86">
         <v>55500</v>
       </c>
@@ -4842,7 +4797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A87">
         <v>57000</v>
       </c>
@@ -4880,7 +4835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A88">
         <v>60000</v>
       </c>
@@ -4918,7 +4873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A89">
         <v>78000</v>
       </c>
@@ -4956,7 +4911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A90">
         <v>35000</v>
       </c>
@@ -4994,7 +4949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A91">
         <v>44000</v>
       </c>
@@ -5032,7 +4987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A92">
         <v>47000</v>
       </c>
@@ -5070,7 +5025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A93">
         <v>58000</v>
       </c>
@@ -5108,7 +5063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A94">
         <v>163000</v>
       </c>
@@ -5146,7 +5101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A95">
         <v>128000</v>
       </c>
@@ -5184,7 +5139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A96">
         <v>123500</v>
       </c>
@@ -5222,7 +5177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A97">
         <v>39000</v>
       </c>
@@ -5260,7 +5215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A98">
         <v>53900</v>
       </c>
@@ -5298,7 +5253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A99">
         <v>59900</v>
       </c>
@@ -5336,7 +5291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A100">
         <v>35000</v>
       </c>
@@ -5374,7 +5329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A101">
         <v>43000</v>
       </c>
@@ -5412,7 +5367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A102">
         <v>57000</v>
       </c>
@@ -5450,7 +5405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A103">
         <v>79000</v>
       </c>
@@ -5488,7 +5443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A104">
         <v>125000</v>
       </c>
@@ -5526,7 +5481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A105">
         <v>132000</v>
       </c>
@@ -5564,7 +5519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A106">
         <v>58000</v>
       </c>
@@ -5602,7 +5557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A107">
         <v>43000</v>
       </c>
@@ -5640,7 +5595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A108">
         <v>48000</v>
       </c>
@@ -5678,7 +5633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A109">
         <v>58500</v>
       </c>
@@ -5716,7 +5671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A110">
         <v>73000</v>
       </c>
@@ -5754,7 +5709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A111">
         <v>63500</v>
       </c>
@@ -5792,7 +5747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A112">
         <v>43000</v>
       </c>
@@ -5830,7 +5785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A113">
         <v>46500</v>
       </c>
@@ -5868,7 +5823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A114">
         <v>92000</v>
       </c>
@@ -5906,7 +5861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A115">
         <v>75000</v>
       </c>
@@ -5944,7 +5899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A116">
         <v>75000</v>
       </c>
@@ -5982,7 +5937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A117">
         <v>85000</v>
       </c>
@@ -6020,7 +5975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A118">
         <v>93000</v>
       </c>
@@ -6058,7 +6013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A119">
         <v>94500</v>
       </c>
@@ -6096,7 +6051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A120">
         <v>106500</v>
       </c>
@@ -6134,7 +6089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A121">
         <v>116000</v>
       </c>
@@ -6172,7 +6127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A122">
         <v>61500</v>
       </c>
@@ -6210,7 +6165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A123">
         <v>80000</v>
       </c>
@@ -6248,7 +6203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A124">
         <v>37000</v>
       </c>
@@ -6286,7 +6241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A125">
         <v>59500</v>
       </c>
@@ -6324,7 +6279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A126">
         <v>70000</v>
       </c>
@@ -6362,7 +6317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A127">
         <v>95000</v>
       </c>
@@ -6400,7 +6355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A128">
         <v>117000</v>
       </c>
@@ -6438,7 +6393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A129">
         <v>122500</v>
       </c>
@@ -6476,7 +6431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A130">
         <v>123500</v>
       </c>
@@ -6514,7 +6469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A131">
         <v>127000</v>
       </c>
@@ -6552,7 +6507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A132">
         <v>35000</v>
       </c>
@@ -6590,7 +6545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A133">
         <v>44500</v>
       </c>
@@ -6628,7 +6583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A134">
         <v>49900</v>
       </c>
@@ -6666,7 +6621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A135">
         <v>50500</v>
       </c>
@@ -6704,7 +6659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A136">
         <v>65000</v>
       </c>
@@ -6742,7 +6697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A137">
         <v>90000</v>
       </c>
@@ -6780,7 +6735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A138">
         <v>46000</v>
       </c>
@@ -6818,7 +6773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A139">
         <v>35000</v>
       </c>
@@ -6856,7 +6811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A140">
         <v>26500</v>
       </c>
@@ -6894,7 +6849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A141">
         <v>43000</v>
       </c>
@@ -6932,7 +6887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A142">
         <v>56000</v>
       </c>
@@ -6970,7 +6925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A143">
         <v>40000</v>
       </c>
@@ -7008,7 +6963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A144">
         <v>51000</v>
       </c>
@@ -7046,7 +7001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A145">
         <v>51000</v>
       </c>
@@ -7084,7 +7039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A146">
         <v>57250</v>
       </c>
@@ -7122,7 +7077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A147">
         <v>44000</v>
       </c>
@@ -7160,7 +7115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A148">
         <v>61000</v>
       </c>
@@ -7198,7 +7153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A149">
         <v>62000</v>
       </c>
@@ -7236,7 +7191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A150">
         <v>80000</v>
       </c>
@@ -7274,7 +7229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A151">
         <v>50000</v>
       </c>
@@ -7312,7 +7267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A152">
         <v>59900</v>
       </c>
@@ -7350,7 +7305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A153">
         <v>35500</v>
       </c>
@@ -7388,7 +7343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A154">
         <v>37000</v>
       </c>
@@ -7426,7 +7381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A155">
         <v>42000</v>
       </c>
@@ -7464,7 +7419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A156">
         <v>48000</v>
       </c>
@@ -7502,7 +7457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A157">
         <v>60000</v>
       </c>
@@ -7540,7 +7495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A158">
         <v>60000</v>
       </c>
@@ -7578,7 +7533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A159">
         <v>60000</v>
       </c>
@@ -7616,7 +7571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A160">
         <v>62000</v>
       </c>
@@ -7654,7 +7609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A161">
         <v>63000</v>
       </c>
@@ -7692,7 +7647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A162">
         <v>63900</v>
       </c>
@@ -7730,7 +7685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A163">
         <v>130000</v>
       </c>
@@ -7768,7 +7723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A164">
         <v>25000</v>
       </c>
@@ -7806,7 +7761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A165">
         <v>50000</v>
       </c>
@@ -7844,7 +7799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A166">
         <v>52900</v>
       </c>
@@ -7882,7 +7837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A167">
         <v>62000</v>
       </c>
@@ -7920,7 +7875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A168">
         <v>73500</v>
       </c>
@@ -7958,7 +7913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A169">
         <v>38000</v>
       </c>
@@ -7996,7 +7951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A170">
         <v>46000</v>
       </c>
@@ -8034,7 +7989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A171">
         <v>48000</v>
       </c>
@@ -8072,7 +8027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A172">
         <v>52500</v>
       </c>
@@ -8110,7 +8065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A173">
         <v>32000</v>
       </c>
@@ -8148,7 +8103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A174">
         <v>38000</v>
       </c>
@@ -8186,7 +8141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A175">
         <v>46000</v>
       </c>
@@ -8224,7 +8179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A176">
         <v>50000</v>
       </c>
@@ -8262,7 +8217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A177">
         <v>57500</v>
       </c>
@@ -8300,7 +8255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A178">
         <v>70000</v>
       </c>
@@ -8338,7 +8293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A179">
         <v>69900</v>
       </c>
@@ -8376,7 +8331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A180">
         <v>74500</v>
       </c>
@@ -8414,7 +8369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A181">
         <v>42000</v>
       </c>
@@ -8452,7 +8407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A182">
         <v>60000</v>
       </c>
@@ -8490,7 +8445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A183">
         <v>50000</v>
       </c>
@@ -8528,7 +8483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A184">
         <v>58000</v>
       </c>
@@ -8566,7 +8521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A185">
         <v>63900</v>
       </c>
@@ -8604,7 +8559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A186">
         <v>28000</v>
       </c>
@@ -8642,7 +8597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A187">
         <v>54000</v>
       </c>
@@ -8680,7 +8635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A188">
         <v>44700</v>
       </c>
@@ -8718,7 +8673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A189">
         <v>47000</v>
       </c>
@@ -8756,7 +8711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A190">
         <v>50000</v>
       </c>
@@ -8794,7 +8749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A191">
         <v>57250</v>
       </c>
@@ -8832,7 +8787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A192">
         <v>67000</v>
       </c>
@@ -8870,7 +8825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A193">
         <v>52500</v>
       </c>
@@ -8908,7 +8863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A194">
         <v>42000</v>
       </c>
@@ -8946,7 +8901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A195">
         <v>57500</v>
       </c>
@@ -8984,7 +8939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A196">
         <v>33000</v>
       </c>
@@ -9022,7 +8977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A197">
         <v>34400</v>
       </c>
@@ -9060,7 +9015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A198">
         <v>40000</v>
       </c>
@@ -9098,7 +9053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A199">
         <v>40500</v>
       </c>
@@ -9136,7 +9091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A200">
         <v>46500</v>
       </c>
@@ -9174,7 +9129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A201">
         <v>52000</v>
       </c>
@@ -9212,7 +9167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A202">
         <v>53000</v>
       </c>
@@ -9250,7 +9205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A203">
         <v>53900</v>
       </c>
@@ -9288,7 +9243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A204">
         <v>50000</v>
       </c>
@@ -9326,7 +9281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A205">
         <v>55500</v>
       </c>
@@ -9364,7 +9319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A206">
         <v>56000</v>
       </c>
@@ -9402,7 +9357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A207">
         <v>60000</v>
       </c>
@@ -9440,7 +9395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A208">
         <v>60000</v>
       </c>
@@ -9478,7 +9433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A209">
         <v>69500</v>
       </c>
@@ -9516,7 +9471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A210">
         <v>72000</v>
       </c>
@@ -9554,7 +9509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A211">
         <v>92500</v>
       </c>
@@ -9592,7 +9547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A212">
         <v>40500</v>
       </c>
@@ -9630,7 +9585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A213">
         <v>42000</v>
       </c>
@@ -9668,7 +9623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A214">
         <v>47900</v>
       </c>
@@ -9706,7 +9661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A215">
         <v>52000</v>
       </c>
@@ -9744,7 +9699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A216">
         <v>62000</v>
       </c>
@@ -9782,7 +9737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A217">
         <v>41000</v>
       </c>
@@ -9820,7 +9775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A218">
         <v>138300</v>
       </c>
@@ -9858,7 +9813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A219">
         <v>42000</v>
       </c>
@@ -9896,7 +9851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A220">
         <v>47000</v>
       </c>
@@ -9934,7 +9889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A221">
         <v>64500</v>
       </c>
@@ -9972,7 +9927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A222">
         <v>46000</v>
       </c>
@@ -10010,7 +9965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A223">
         <v>58000</v>
       </c>
@@ -10048,7 +10003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A224">
         <v>70100</v>
       </c>
@@ -10086,7 +10041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A225">
         <v>78500</v>
       </c>
@@ -10124,7 +10079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A226">
         <v>87250</v>
       </c>
@@ -10162,7 +10117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A227">
         <v>70800</v>
       </c>
@@ -10200,7 +10155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A228">
         <v>56000</v>
       </c>
@@ -10238,7 +10193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A229">
         <v>48000</v>
       </c>
@@ -10276,7 +10231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A230">
         <v>68000</v>
       </c>
@@ -10314,7 +10269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A231">
         <v>79000</v>
       </c>
@@ -10352,7 +10307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A232">
         <v>80000</v>
       </c>
@@ -10390,7 +10345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A233">
         <v>87000</v>
       </c>
@@ -10428,7 +10383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A234">
         <v>25000</v>
       </c>
@@ -10466,7 +10421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A235">
         <v>32500</v>
       </c>
@@ -10504,7 +10459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A236">
         <v>36000</v>
       </c>
@@ -10542,7 +10497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A237">
         <v>42500</v>
       </c>
@@ -10580,7 +10535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A238">
         <v>43000</v>
       </c>
@@ -10618,7 +10573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A239">
         <v>50000</v>
       </c>
@@ -10656,7 +10611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A240">
         <v>26000</v>
       </c>
@@ -10694,7 +10649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A241">
         <v>30000</v>
       </c>
@@ -10732,7 +10687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A242">
         <v>34000</v>
       </c>
@@ -10770,7 +10725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A243">
         <v>52000</v>
       </c>
@@ -10808,7 +10763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A244">
         <v>70000</v>
       </c>
@@ -10846,7 +10801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A245">
         <v>27000</v>
       </c>
@@ -10884,7 +10839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A246">
         <v>32500</v>
       </c>
@@ -10922,7 +10877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A247">
         <v>37200</v>
       </c>
@@ -10960,7 +10915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A248">
         <v>38000</v>
       </c>
@@ -10998,7 +10953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A249">
         <v>42000</v>
       </c>
@@ -11036,7 +10991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A250">
         <v>44500</v>
       </c>
@@ -11074,7 +11029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A251">
         <v>45000</v>
       </c>
@@ -11112,7 +11067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A252">
         <v>48500</v>
       </c>
@@ -11150,7 +11105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A253">
         <v>52000</v>
       </c>
@@ -11188,7 +11143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A254">
         <v>53900</v>
       </c>
@@ -11226,7 +11181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A255">
         <v>60000</v>
       </c>
@@ -11264,7 +11219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A256">
         <v>61000</v>
       </c>
@@ -11302,7 +11257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A257">
         <v>64500</v>
       </c>
@@ -11340,7 +11295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A258">
         <v>71000</v>
       </c>
@@ -11378,7 +11333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A259">
         <v>75500</v>
       </c>
@@ -11416,7 +11371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A260">
         <v>33500</v>
       </c>
@@ -11454,7 +11409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A261">
         <v>41000</v>
       </c>
@@ -11492,7 +11447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A262">
         <v>41000</v>
       </c>
@@ -11530,7 +11485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A263">
         <v>46200</v>
       </c>
@@ -11568,7 +11523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A264">
         <v>48500</v>
       </c>
@@ -11606,7 +11561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A265">
         <v>48900</v>
       </c>
@@ -11644,7 +11599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A266">
         <v>50000</v>
       </c>
@@ -11682,7 +11637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A267">
         <v>51000</v>
       </c>
@@ -11720,7 +11675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A268">
         <v>52500</v>
       </c>
@@ -11758,7 +11713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A269">
         <v>52500</v>
       </c>
@@ -11796,7 +11751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A270">
         <v>54000</v>
       </c>
@@ -11834,7 +11789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A271">
         <v>59000</v>
       </c>
@@ -11872,7 +11827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A272">
         <v>60000</v>
       </c>
@@ -11910,7 +11865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A273">
         <v>63000</v>
       </c>
@@ -11948,7 +11903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A274">
         <v>64000</v>
       </c>
@@ -11986,7 +11941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A275">
         <v>64900</v>
       </c>
@@ -12024,7 +11979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A276">
         <v>65000</v>
       </c>
@@ -12062,7 +12017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A277">
         <v>66000</v>
       </c>
@@ -12100,7 +12055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A278">
         <v>70000</v>
       </c>
@@ -12138,7 +12093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A279">
         <v>65500</v>
       </c>
@@ -12176,7 +12131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A280">
         <v>57000</v>
       </c>
@@ -12214,7 +12169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A281">
         <v>52000</v>
       </c>
@@ -12252,7 +12207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A282">
         <v>54000</v>
       </c>
@@ -12290,7 +12245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A283">
         <v>74500</v>
       </c>
@@ -12328,7 +12283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A284">
         <v>90000</v>
       </c>
@@ -12366,7 +12321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A285">
         <v>45000</v>
       </c>
@@ -12404,7 +12359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A286">
         <v>45000</v>
       </c>
@@ -12442,7 +12397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A287">
         <v>65000</v>
       </c>
@@ -12480,7 +12435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A288">
         <v>55000</v>
       </c>
@@ -12518,7 +12473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A289">
         <v>62000</v>
       </c>
@@ -12556,7 +12511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A290">
         <v>30000</v>
       </c>
@@ -12594,7 +12549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A291">
         <v>34000</v>
       </c>
@@ -12632,7 +12587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A292">
         <v>38000</v>
       </c>
@@ -12670,7 +12625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A293">
         <v>39000</v>
       </c>
@@ -12708,7 +12663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A294">
         <v>45000</v>
       </c>
@@ -12746,7 +12701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A295">
         <v>47000</v>
       </c>
@@ -12784,7 +12739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A296">
         <v>47500</v>
       </c>
@@ -12822,7 +12777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A297">
         <v>49000</v>
       </c>
@@ -12860,7 +12815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A298">
         <v>50000</v>
       </c>
@@ -12898,7 +12853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A299">
         <v>50000</v>
       </c>
@@ -12936,7 +12891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A300">
         <v>52900</v>
       </c>
@@ -12974,7 +12929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A301">
         <v>53000</v>
       </c>
@@ -13012,7 +12967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A302">
         <v>55000</v>
       </c>
@@ -13050,7 +13005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A303">
         <v>56000</v>
       </c>
@@ -13088,7 +13043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A304">
         <v>58500</v>
       </c>
@@ -13126,7 +13081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A305">
         <v>59500</v>
       </c>
@@ -13164,7 +13119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A306">
         <v>60000</v>
       </c>
@@ -13202,7 +13157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A307">
         <v>64000</v>
       </c>
@@ -13240,7 +13195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A308">
         <v>67000</v>
       </c>
@@ -13278,7 +13233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A309">
         <v>68100</v>
       </c>
@@ -13316,7 +13271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A310">
         <v>70000</v>
       </c>
@@ -13354,7 +13309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A311">
         <v>72000</v>
       </c>
@@ -13392,7 +13347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A312">
         <v>57500</v>
       </c>
@@ -13430,7 +13385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A313">
         <v>69900</v>
       </c>
@@ -13468,7 +13423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A314">
         <v>70000</v>
       </c>
@@ -13506,7 +13461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A315">
         <v>75000</v>
       </c>
@@ -13544,7 +13499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A316">
         <v>76900</v>
       </c>
@@ -13582,7 +13537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A317">
         <v>78000</v>
       </c>
@@ -13620,7 +13575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A318">
         <v>80000</v>
       </c>
@@ -13658,7 +13613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A319">
         <v>82000</v>
       </c>
@@ -13696,7 +13651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A320">
         <v>83000</v>
       </c>
@@ -13734,7 +13689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A321">
         <v>83000</v>
       </c>
@@ -13772,7 +13727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A322">
         <v>83900</v>
       </c>
@@ -13810,7 +13765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A323">
         <v>88500</v>
       </c>
@@ -13848,7 +13803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A324">
         <v>93000</v>
       </c>
@@ -13886,7 +13841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A325">
         <v>98000</v>
       </c>
@@ -13924,7 +13879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A326">
         <v>98500</v>
       </c>
@@ -13962,7 +13917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A327">
         <v>99000</v>
       </c>
@@ -14000,7 +13955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A328">
         <v>101000</v>
       </c>
@@ -14038,7 +13993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A329">
         <v>110000</v>
       </c>
@@ -14076,7 +14031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A330">
         <v>115442</v>
       </c>
@@ -14114,7 +14069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A331">
         <v>120000</v>
       </c>
@@ -14152,7 +14107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A332">
         <v>124000</v>
       </c>
@@ -14190,7 +14145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A333">
         <v>175000</v>
       </c>
@@ -14228,7 +14183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A334">
         <v>50000</v>
       </c>
@@ -14266,7 +14221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A335">
         <v>55000</v>
       </c>
@@ -14304,7 +14259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A336">
         <v>60000</v>
       </c>
@@ -14342,7 +14297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A337">
         <v>61000</v>
       </c>
@@ -14380,7 +14335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A338">
         <v>106000</v>
       </c>
@@ -14418,7 +14373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A339">
         <v>155000</v>
       </c>
@@ -14456,7 +14411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A340">
         <v>141000</v>
       </c>
@@ -14494,7 +14449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A341">
         <v>62500</v>
       </c>
@@ -14532,7 +14487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A342">
         <v>70000</v>
       </c>
@@ -14570,7 +14525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A343">
         <v>73000</v>
       </c>
@@ -14608,7 +14563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A344">
         <v>80000</v>
       </c>
@@ -14646,7 +14601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A345">
         <v>80000</v>
       </c>
@@ -14684,7 +14639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A346">
         <v>88000</v>
       </c>
@@ -14722,7 +14677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A347">
         <v>49000</v>
       </c>
@@ -14760,7 +14715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A348">
         <v>52000</v>
       </c>
@@ -14798,7 +14753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A349">
         <v>59500</v>
       </c>
@@ -14836,7 +14791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A350">
         <v>60000</v>
       </c>
@@ -14874,7 +14829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A351">
         <v>64000</v>
       </c>
@@ -14912,7 +14867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A352">
         <v>64500</v>
       </c>
@@ -14950,7 +14905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A353">
         <v>68500</v>
       </c>
@@ -14988,7 +14943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A354">
         <v>78500</v>
       </c>
@@ -15026,7 +14981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A355">
         <v>86000</v>
       </c>
@@ -15064,7 +15019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A356">
         <v>86900</v>
       </c>
@@ -15102,7 +15057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A357">
         <v>75000</v>
       </c>
@@ -15140,7 +15095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A358">
         <v>78000</v>
       </c>
@@ -15178,7 +15133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A359">
         <v>95000</v>
       </c>
@@ -15216,7 +15171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A360">
         <v>97000</v>
       </c>
@@ -15254,7 +15209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A361">
         <v>107000</v>
       </c>
@@ -15292,7 +15247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A362">
         <v>130000</v>
       </c>
@@ -15330,7 +15285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A363">
         <v>145000</v>
       </c>
@@ -15368,7 +15323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A364">
         <v>175000</v>
       </c>
@@ -15406,7 +15361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A365">
         <v>72000</v>
       </c>
@@ -15444,7 +15399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A366">
         <v>84900</v>
       </c>
@@ -15482,7 +15437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A367">
         <v>99000</v>
       </c>
@@ -15520,7 +15475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A368">
         <v>114000</v>
       </c>
@@ -15558,7 +15513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A369">
         <v>120000</v>
       </c>
@@ -15596,7 +15551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A370">
         <v>145000</v>
       </c>
@@ -15634,7 +15589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A371">
         <v>79000</v>
       </c>
@@ -15672,7 +15627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A372">
         <v>82000</v>
       </c>
@@ -15710,7 +15665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A373">
         <v>85000</v>
       </c>
@@ -15748,7 +15703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A374">
         <v>100500</v>
       </c>
@@ -15786,7 +15741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A375">
         <v>122000</v>
       </c>
@@ -15824,7 +15779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A376">
         <v>126500</v>
       </c>
@@ -15862,7 +15817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A377">
         <v>133000</v>
       </c>
@@ -15900,7 +15855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A378">
         <v>140000</v>
       </c>
@@ -15938,7 +15893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A379">
         <v>190000</v>
       </c>
@@ -15976,7 +15931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A380">
         <v>84000</v>
       </c>
@@ -16014,7 +15969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A381">
         <v>97000</v>
       </c>
@@ -16052,7 +16007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A382">
         <v>103500</v>
       </c>
@@ -16090,7 +16045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A383">
         <v>112500</v>
       </c>
@@ -16128,7 +16083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A384">
         <v>140000</v>
       </c>
@@ -16166,7 +16121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A385">
         <v>74700</v>
       </c>
@@ -16204,7 +16159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A386">
         <v>78000</v>
       </c>
@@ -16242,7 +16197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A387">
         <v>78900</v>
       </c>
@@ -16280,7 +16235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A388">
         <v>83900</v>
       </c>
@@ -16318,7 +16273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A389">
         <v>85000</v>
       </c>
@@ -16356,7 +16311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A390">
         <v>85000</v>
       </c>
@@ -16394,7 +16349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A391">
         <v>86000</v>
       </c>
@@ -16432,7 +16387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A392">
         <v>86900</v>
       </c>
@@ -16470,7 +16425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A393">
         <v>94500</v>
       </c>
@@ -16508,7 +16463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A394">
         <v>96000</v>
       </c>
@@ -16546,7 +16501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A395">
         <v>106000</v>
       </c>
@@ -16584,7 +16539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A396">
         <v>72000</v>
       </c>
@@ -16622,7 +16577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A397">
         <v>74500</v>
       </c>
@@ -16660,7 +16615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A398">
         <v>77000</v>
       </c>
@@ -16698,7 +16653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A399">
         <v>80750</v>
       </c>
@@ -16736,7 +16691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A400">
         <v>82900</v>
       </c>
@@ -16774,7 +16729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A401">
         <v>85000</v>
       </c>
@@ -16812,7 +16767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A402">
         <v>92500</v>
       </c>
@@ -16850,7 +16805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A403">
         <v>76000</v>
       </c>
@@ -16888,7 +16843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A404">
         <v>77500</v>
       </c>
@@ -16926,7 +16881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A405">
         <v>80000</v>
       </c>
@@ -16964,7 +16919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A406">
         <v>80000</v>
       </c>
@@ -17002,7 +16957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A407">
         <v>86000</v>
       </c>
@@ -17040,7 +16995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A408">
         <v>87000</v>
       </c>
@@ -17078,7 +17033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A409">
         <v>87500</v>
       </c>
@@ -17116,7 +17071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A410">
         <v>89000</v>
       </c>
@@ -17154,7 +17109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A411">
         <v>89900</v>
       </c>
@@ -17192,7 +17147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A412">
         <v>90000</v>
       </c>
@@ -17230,7 +17185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A413">
         <v>95000</v>
       </c>
@@ -17268,7 +17223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A414">
         <v>112000</v>
       </c>
@@ -17306,7 +17261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A415">
         <v>31900</v>
       </c>
@@ -17344,7 +17299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A416">
         <v>52000</v>
       </c>
@@ -17382,7 +17337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A417">
         <v>90000</v>
       </c>
@@ -17420,7 +17375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A418">
         <v>100000</v>
       </c>
@@ -17458,7 +17413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A419">
         <v>91700</v>
       </c>
@@ -17496,7 +17451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A420">
         <v>174500</v>
       </c>
@@ -17534,7 +17489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A421">
         <v>94700</v>
       </c>
@@ -17572,7 +17527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A422">
         <v>68000</v>
       </c>
@@ -17610,7 +17565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A423">
         <v>80000</v>
       </c>
@@ -17648,7 +17603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A424">
         <v>61100</v>
       </c>
@@ -17686,7 +17641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A425">
         <v>62900</v>
       </c>
@@ -17724,7 +17679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A426">
         <v>65500</v>
       </c>
@@ -17762,7 +17717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A427">
         <v>66000</v>
       </c>
@@ -17800,7 +17755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A428">
         <v>49500</v>
       </c>
@@ -17838,7 +17793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A429">
         <v>50000</v>
       </c>
@@ -17876,7 +17831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A430">
         <v>53500</v>
       </c>
@@ -17914,7 +17869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A431">
         <v>58550</v>
       </c>
@@ -17952,7 +17907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A432">
         <v>64500</v>
       </c>
@@ -17990,7 +17945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A433">
         <v>65000</v>
       </c>
@@ -18028,7 +17983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A434">
         <v>69000</v>
       </c>
@@ -18066,7 +18021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A435">
         <v>73000</v>
       </c>
@@ -18104,7 +18059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A436">
         <v>75000</v>
       </c>
@@ -18142,7 +18097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A437">
         <v>75000</v>
       </c>
@@ -18180,7 +18135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A438">
         <v>132000</v>
       </c>
@@ -18218,7 +18173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A439">
         <v>60000</v>
       </c>
@@ -18256,7 +18211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A440">
         <v>65000</v>
       </c>
@@ -18294,7 +18249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A441">
         <v>69000</v>
       </c>
@@ -18332,7 +18287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A442">
         <v>51900</v>
       </c>
@@ -18370,7 +18325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A443">
         <v>57000</v>
       </c>
@@ -18408,7 +18363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A444">
         <v>65000</v>
       </c>
@@ -18446,7 +18401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A445">
         <v>79500</v>
       </c>
@@ -18484,7 +18439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A446">
         <v>72500</v>
       </c>
@@ -18522,7 +18477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A447">
         <v>104900</v>
       </c>
@@ -18560,7 +18515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A448">
         <v>114900</v>
       </c>
@@ -18598,7 +18553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A449">
         <v>120000</v>
       </c>
@@ -18636,7 +18591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A450">
         <v>58000</v>
       </c>
@@ -18674,7 +18629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A451">
         <v>67000</v>
       </c>
@@ -18712,7 +18667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A452">
         <v>67000</v>
       </c>
@@ -18750,7 +18705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A453">
         <v>69000</v>
       </c>
@@ -18788,7 +18743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A454">
         <v>73000</v>
       </c>
@@ -18826,7 +18781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A455">
         <v>73500</v>
       </c>
@@ -18864,7 +18819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A456">
         <v>74900</v>
       </c>
@@ -18902,7 +18857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A457">
         <v>75000</v>
       </c>
@@ -18940,7 +18895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A458">
         <v>79500</v>
       </c>
@@ -18978,7 +18933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A459">
         <v>120900</v>
       </c>
@@ -19016,7 +18971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A460">
         <v>44555</v>
       </c>
@@ -19054,7 +19009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A461">
         <v>47000</v>
       </c>
@@ -19092,7 +19047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A462">
         <v>47600</v>
       </c>
@@ -19130,7 +19085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A463">
         <v>49000</v>
       </c>
@@ -19168,7 +19123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A464">
         <v>49000</v>
       </c>
@@ -19206,7 +19161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A465">
         <v>49000</v>
       </c>
@@ -19244,7 +19199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A466">
         <v>49500</v>
       </c>
@@ -19282,7 +19237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A467">
         <v>52000</v>
       </c>
@@ -19320,7 +19275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A468">
         <v>54000</v>
       </c>
@@ -19358,7 +19313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A469">
         <v>55000</v>
       </c>
@@ -19396,7 +19351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A470">
         <v>55000</v>
       </c>
@@ -19434,7 +19389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A471">
         <v>56000</v>
       </c>
@@ -19472,7 +19427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A472">
         <v>60000</v>
       </c>
@@ -19510,7 +19465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A473">
         <v>60500</v>
       </c>
@@ -19548,7 +19503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A474">
         <v>50000</v>
       </c>
@@ -19586,7 +19541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A475">
         <v>64900</v>
       </c>
@@ -19624,7 +19579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A476">
         <v>93000</v>
       </c>
@@ -19662,7 +19617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A477">
         <v>85000</v>
       </c>
@@ -19700,7 +19655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A478">
         <v>61500</v>
       </c>
@@ -19738,7 +19693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A479">
         <v>88500</v>
       </c>
@@ -19776,7 +19731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A480">
         <v>88000</v>
       </c>
@@ -19814,7 +19769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A481">
         <v>89000</v>
       </c>
@@ -19852,7 +19807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A482">
         <v>89500</v>
       </c>
@@ -19890,7 +19845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A483">
         <v>95000</v>
       </c>
@@ -19928,7 +19883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A484">
         <v>95500</v>
       </c>
@@ -19966,7 +19921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A485">
         <v>51500</v>
       </c>
@@ -20004,7 +19959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A486">
         <v>62900</v>
       </c>
@@ -20042,7 +19997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A487">
         <v>118500</v>
       </c>
@@ -20080,7 +20035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A488">
         <v>42900</v>
       </c>
@@ -20118,7 +20073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A489">
         <v>44100</v>
       </c>
@@ -20156,7 +20111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A490">
         <v>47000</v>
       </c>
@@ -20194,7 +20149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A491">
         <v>50000</v>
       </c>
@@ -20232,7 +20187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A492">
         <v>50000</v>
       </c>
@@ -20270,7 +20225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A493">
         <v>53000</v>
       </c>
@@ -20308,7 +20263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A494">
         <v>53000</v>
       </c>
@@ -20346,7 +20301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A495">
         <v>54000</v>
       </c>
@@ -20384,7 +20339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A496">
         <v>58500</v>
       </c>
@@ -20422,7 +20377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A497">
         <v>59000</v>
       </c>
@@ -20460,7 +20415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A498">
         <v>60000</v>
       </c>
@@ -20498,7 +20453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A499">
         <v>62900</v>
       </c>
@@ -20536,7 +20491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A500">
         <v>64000</v>
       </c>
@@ -20574,7 +20529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A501">
         <v>65000</v>
       </c>
@@ -20612,7 +20567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A502">
         <v>67900</v>
       </c>
@@ -20650,7 +20605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A503">
         <v>68500</v>
       </c>
@@ -20688,7 +20643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A504">
         <v>70000</v>
       </c>
@@ -20726,7 +20681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A505">
         <v>70500</v>
       </c>
@@ -20764,7 +20719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A506">
         <v>71500</v>
       </c>
@@ -20802,7 +20757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A507">
         <v>71900</v>
       </c>
@@ -20840,7 +20795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A508">
         <v>75000</v>
       </c>
@@ -20878,7 +20833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A509">
         <v>75000</v>
       </c>
@@ -20916,7 +20871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A510">
         <v>87000</v>
       </c>
@@ -20954,7 +20909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A511">
         <v>64000</v>
       </c>
@@ -20992,7 +20947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A512">
         <v>70000</v>
       </c>
@@ -21030,7 +20985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A513">
         <v>47500</v>
       </c>
@@ -21068,7 +21023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A514">
         <v>62600</v>
       </c>
@@ -21106,7 +21061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A515">
         <v>66000</v>
       </c>
@@ -21144,7 +21099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A516">
         <v>58900</v>
       </c>
@@ -21182,7 +21137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A517">
         <v>53000</v>
       </c>
@@ -21220,7 +21175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A518">
         <v>95000</v>
       </c>
@@ -21258,7 +21213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A519">
         <v>96500</v>
       </c>
@@ -21296,7 +21251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A520">
         <v>101000</v>
       </c>
@@ -21334,7 +21289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A521">
         <v>102000</v>
       </c>
@@ -21372,7 +21327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A522">
         <v>103000</v>
       </c>
@@ -21410,7 +21365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A523">
         <v>105000</v>
       </c>
@@ -21448,7 +21403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A524">
         <v>108000</v>
       </c>
@@ -21486,7 +21441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A525">
         <v>110000</v>
       </c>
@@ -21524,7 +21479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A526">
         <v>113000</v>
       </c>
@@ -21562,7 +21517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A527">
         <v>120000</v>
       </c>
@@ -21600,7 +21555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A528">
         <v>105000</v>
       </c>
@@ -21638,7 +21593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A529">
         <v>106000</v>
       </c>
@@ -21676,7 +21631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A530">
         <v>107500</v>
       </c>
@@ -21714,7 +21669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A531">
         <v>108000</v>
       </c>
@@ -21752,7 +21707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A532">
         <v>113750</v>
       </c>
@@ -21790,7 +21745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A533">
         <v>120000</v>
       </c>
@@ -21828,7 +21783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A534">
         <v>70000</v>
       </c>
@@ -21866,7 +21821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A535">
         <v>71000</v>
       </c>
@@ -21904,7 +21859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A536">
         <v>82000</v>
       </c>
@@ -21942,7 +21897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A537">
         <v>82000</v>
       </c>
@@ -21980,7 +21935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A538">
         <v>82500</v>
       </c>
@@ -22018,7 +21973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A539">
         <v>83000</v>
       </c>
@@ -22056,7 +22011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A540">
         <v>84000</v>
       </c>
@@ -22094,7 +22049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A541">
         <v>85000</v>
       </c>
@@ -22132,7 +22087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A542">
         <v>85000</v>
       </c>
@@ -22170,7 +22125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A543">
         <v>91500</v>
       </c>
@@ -22208,7 +22163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A544">
         <v>94000</v>
       </c>
@@ -22246,7 +22201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A545">
         <v>103000</v>
       </c>
@@ -22284,7 +22239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A546">
         <v>105000</v>
       </c>
@@ -22322,7 +22277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A547">
         <v>105000</v>
       </c>
@@ -22370,6 +22325,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EF09FB187B9B84793DBC132EEBE2230" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aac6bf77fcb3d30d53f0d4b79425cbb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f" xmlns:ns3="86b59944-c92b-47ac-9d30-5bf03be2cde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725b7bcca34814dbd54a474e410d6122" ns2:_="" ns3:_="">
     <xsd:import namespace="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
@@ -22612,27 +22587,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
+    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544B82FC-20C2-418A-951C-FC717CE0D202}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22649,23 +22623,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
-    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/5-frequency-tables/5-frequency-tables-solution.xlsx
+++ b/5-frequency-tables/5-frequency-tables-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\5-frequency-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F036A-225C-4646-834C-E477FDC2E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4996CCA-515D-40C9-8FB8-40222CE46F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -631,12 +631,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -676,6 +678,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F100E-6F50-45F7-B7E1-91FE25D9DD5D}">
   <dimension ref="A1:Q547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
@@ -1319,8 +1322,7 @@
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="8.73046875" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.4296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.9">
@@ -1699,13 +1701,7 @@
       <c r="L9" t="s">
         <v>13</v>
       </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9:O13">_xlfn._xlws.PY(2,0)</f>
-        <v>stories</v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <v>proportion</v>
-      </c>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A10">
@@ -1744,11 +1740,12 @@
       <c r="L10" t="s">
         <v>13</v>
       </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.4358974358974359</v>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10:O14">_xlfn._xlws.PY(2,0)</f>
+        <v>stories</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <v>proportion</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.9">
@@ -1789,10 +1786,10 @@
         <v>13</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1">
-        <v>0.41575091575091577</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.9">
@@ -1833,10 +1830,10 @@
         <v>13</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
-        <v>7.5091575091575088E-2</v>
+        <v>0.41575091575091577</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.9">
@@ -1877,10 +1874,10 @@
         <v>13</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1">
-        <v>7.3260073260073263E-2</v>
+        <v>7.5091575091575088E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.9">
@@ -1920,6 +1917,12 @@
       <c r="L14" t="s">
         <v>13</v>
       </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>7.3260073260073263E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.9">
       <c r="A15">
@@ -2279,6 +2282,9 @@
       <c r="L22" t="s">
         <v>13</v>
       </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A23">
@@ -2317,6 +2323,19 @@
       <c r="L23" t="s">
         <v>13</v>
       </c>
+      <c r="N23" t="str" cm="1">
+        <f t="array" ref="N23:Q29">_xlfn._xlws.PY(4,0)</f>
+        <v>driveway</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <v>no</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <v>yes</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <v>All</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A24">
@@ -2355,18 +2374,17 @@
       <c r="L24" t="s">
         <v>13</v>
       </c>
-      <c r="N24" t="str" cm="1">
-        <f t="array" ref="N24:Q30">_xlfn._xlws.PY(4,0)</f>
-        <v>driveway</v>
-      </c>
-      <c r="O24" t="str">
-        <v>no</v>
-      </c>
-      <c r="P24" t="str">
-        <v>yes</v>
-      </c>
-      <c r="Q24" t="str">
-        <v>All</v>
+      <c r="N24" t="str">
+        <v>stories</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P24" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.9">
@@ -2406,17 +2424,17 @@
       <c r="L25" t="s">
         <v>13</v>
       </c>
-      <c r="N25" t="str">
-        <v>stories</v>
-      </c>
-      <c r="O25" t="str">
-        <v/>
-      </c>
-      <c r="P25" t="str">
-        <v/>
-      </c>
-      <c r="Q25" t="str">
-        <v/>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>6.7765567765567761E-2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.34798534798534797</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.41575091575091577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.9">
@@ -2457,16 +2475,16 @@
         <v>13</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="1">
-        <v>6.7765567765567761E-2</v>
+        <v>6.95970695970696E-2</v>
       </c>
       <c r="P26" s="1">
-        <v>0.34798534798534797</v>
+        <v>0.36630036630036628</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.41575091575091577</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.9">
@@ -2507,16 +2525,16 @@
         <v>13</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" s="1">
+        <v>3.663003663003663E-3</v>
+      </c>
+      <c r="P27" s="1">
         <v>6.95970695970696E-2</v>
       </c>
-      <c r="P27" s="1">
-        <v>0.36630036630036628</v>
-      </c>
       <c r="Q27" s="1">
-        <v>0.4358974358974359</v>
+        <v>7.3260073260073263E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.9">
@@ -2557,16 +2575,16 @@
         <v>13</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O28" s="1">
-        <v>3.663003663003663E-3</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>6.95970695970696E-2</v>
+        <v>7.5091575091575088E-2</v>
       </c>
       <c r="Q28" s="1">
-        <v>7.3260073260073263E-2</v>
+        <v>7.5091575091575088E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.9">
@@ -2606,17 +2624,17 @@
       <c r="L29" t="s">
         <v>13</v>
       </c>
-      <c r="N29">
-        <v>4</v>
+      <c r="N29" t="str">
+        <v>All</v>
       </c>
       <c r="O29" s="1">
-        <v>0</v>
+        <v>0.14102564102564102</v>
       </c>
       <c r="P29" s="1">
-        <v>7.5091575091575088E-2</v>
+        <v>0.85897435897435892</v>
       </c>
       <c r="Q29" s="1">
-        <v>7.5091575091575088E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.9">
@@ -2656,18 +2674,9 @@
       <c r="L30" t="s">
         <v>13</v>
       </c>
-      <c r="N30" t="str">
-        <v>All</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0.14102564102564102</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.85897435897435892</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>1</v>
-      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.9">
       <c r="A31">
@@ -22317,9 +22326,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>

--- a/5-frequency-tables/5-frequency-tables-solution.xlsx
+++ b/5-frequency-tables/5-frequency-tables-solution.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\5-frequency-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4996CCA-515D-40C9-8FB8-40222CE46F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE27F0-4AC9-4349-B41D-036E4C0D3391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="start" sheetId="5" r:id="rId1"/>
+    <sheet name="5-frequency-tables" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22333,26 +22333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EF09FB187B9B84793DBC132EEBE2230" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aac6bf77fcb3d30d53f0d4b79425cbb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f" xmlns:ns3="86b59944-c92b-47ac-9d30-5bf03be2cde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725b7bcca34814dbd54a474e410d6122" ns2:_="" ns3:_="">
     <xsd:import namespace="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
@@ -22595,26 +22575,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
-    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86b59944-c92b-47ac-9d30-5bf03be2cde5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544B82FC-20C2-418A-951C-FC717CE0D202}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22631,4 +22612,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
+    <ds:schemaRef ds:uri="86b59944-c92b-47ac-9d30-5bf03be2cde5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>